--- a/Показательное распред.xlsx
+++ b/Показательное распред.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDENT\4_Kurs\1_semestr\Sys_Mod\Sys_Mod_Lab_Works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C87035-664D-4A80-854A-0EAE53DF6B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7954A57-F42D-457B-A0D3-D6A25B91BEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="2205" windowWidth="20730" windowHeight="11760" xr2:uid="{96C51130-9DC7-4DB6-9358-49ECBD5BBC9B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96C51130-9DC7-4DB6-9358-49ECBD5BBC9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -165,15 +165,21 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -181,15 +187,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -198,6 +216,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1508,8 +1536,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AA2001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1521,45 +1549,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1567,7 +1603,7 @@
       <c r="A2">
         <v>46.140929986768001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -1593,7 +1629,7 @@
         <f>G2/$C$6</f>
         <v>3.8863185605743013E-2</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J2">
@@ -1608,10 +1644,10 @@
         <f>((G2-K2)^2)/K2</f>
         <v>2.1644566869353938E-4</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <f>SUM(L2:L21)</f>
         <v>1.2036216300685331E-2</v>
       </c>
@@ -1627,21 +1663,21 @@
         <f>ABS(O2-P2)</f>
         <v>1.0993274950719334E-2</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <f>MAX(Q2:Q21)</f>
         <v>2.0836822379231457E-2</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>1</v>
       </c>
       <c r="W2">
         <f ca="1">(SUMPRODUCT(OFFSET($A$2,0,0,$C$5-V2,1),OFFSET($A$2,V2,0,$C$5-V2,1)) / ($C$5-V2)) - (SUM(OFFSET($A$2,0,0,$C$5-V2,1)) * SUM(OFFSET($A$2,V2,0,$C$5-V2,1)) / (($C$5-V2)^2))</f>
         <v>-1.7454936583299627</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="3">
         <f>(SUMPRODUCT(A2:A2000,A3:A2001) / (2000-1)) - (SUM(A2:A2000) * SUM(A3:A2001) / ((2000-1)^2))</f>
         <v>-1.7454936583299627</v>
       </c>
@@ -1650,7 +1686,7 @@
       <c r="A3">
         <v>14.5653950557111</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -1676,7 +1712,7 @@
         <f>G3/$C$6</f>
         <v>2.3850283769003933E-2</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J3">
@@ -1691,10 +1727,10 @@
         <f t="shared" ref="L3:L21" si="4">((G3-K3)^2)/K3</f>
         <v>4.1436005843603109E-4</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <f>1</f>
         <v>1</v>
       </c>
@@ -1710,14 +1746,14 @@
         <f t="shared" ref="Q3:Q21" si="6">ABS(O3-P3)</f>
         <v>2.0836822379231457E-2</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <f>S2*SQRT(C4)</f>
         <v>9.3185102550100887E-2</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>2</v>
       </c>
       <c r="W3">
@@ -1729,7 +1765,7 @@
       <c r="A4">
         <v>65.529598448421297</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4">
@@ -1763,10 +1799,10 @@
         <f t="shared" si="4"/>
         <v>1.3962819487692919E-3</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <f>C4-N3-1</f>
         <v>18</v>
       </c>
@@ -1782,13 +1818,13 @@
         <f t="shared" si="6"/>
         <v>6.5486144454401929E-3</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>1</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>3</v>
       </c>
       <c r="W4">
@@ -1800,7 +1836,7 @@
       <c r="A5">
         <v>21.205071933810501</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5">
@@ -1845,7 +1881,7 @@
         <f t="shared" si="6"/>
         <v>1.0468233991485554E-2</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>4</v>
       </c>
       <c r="W5">
@@ -1857,7 +1893,7 @@
       <c r="A6">
         <v>31.928103314817701</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -1891,10 +1927,10 @@
         <f t="shared" si="4"/>
         <v>5.9655030987607895E-4</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <f>_xlfn.CHISQ.TEST(G2:G21,K2:K21)</f>
         <v>1</v>
       </c>
@@ -1910,7 +1946,7 @@
         <f t="shared" si="6"/>
         <v>4.6287866380133602E-3</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="1">
         <v>5</v>
       </c>
       <c r="W6">
@@ -1922,7 +1958,7 @@
       <c r="A7">
         <v>33.663908841365497</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7">
@@ -1972,7 +2008,7 @@
       <c r="A8">
         <v>14.9635549020417</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8">
@@ -2023,7 +2059,7 @@
       <c r="A9">
         <v>5.0042049731543896</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9">

--- a/Показательное распред.xlsx
+++ b/Показательное распред.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDENT\4_Kurs\1_semestr\Sys_Mod\Sys_Mod_Lab_Works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7954A57-F42D-457B-A0D3-D6A25B91BEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB3CB3B-FF58-47C0-A5E8-AF8BEE091DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96C51130-9DC7-4DB6-9358-49ECBD5BBC9B}"/>
   </bookViews>
